--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf1</t>
+  </si>
+  <si>
+    <t>Cd44</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf1</t>
-  </si>
-  <si>
-    <t>Cd44</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H2">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I2">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J2">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N2">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O2">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P2">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q2">
-        <v>14.92937583384633</v>
+        <v>5.098190758497668</v>
       </c>
       <c r="R2">
-        <v>134.364382504617</v>
+        <v>45.883716826479</v>
       </c>
       <c r="S2">
-        <v>0.008283624509648089</v>
+        <v>0.006670919953573396</v>
       </c>
       <c r="T2">
-        <v>0.008283624509648093</v>
+        <v>0.006670919953573396</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H3">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I3">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J3">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q3">
-        <v>61.76734854223466</v>
+        <v>24.53075367526933</v>
       </c>
       <c r="R3">
-        <v>555.9061368801119</v>
+        <v>220.776783077424</v>
       </c>
       <c r="S3">
-        <v>0.03427186293484918</v>
+        <v>0.03209818971480979</v>
       </c>
       <c r="T3">
-        <v>0.03427186293484919</v>
+        <v>0.03209818971480978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +655,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H4">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I4">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J4">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N4">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q4">
-        <v>163.00178931294</v>
+        <v>44.27560388424833</v>
       </c>
       <c r="R4">
-        <v>1467.01610381646</v>
+        <v>398.4804349582349</v>
       </c>
       <c r="S4">
-        <v>0.09044220147556516</v>
+        <v>0.05793408356006282</v>
       </c>
       <c r="T4">
-        <v>0.09044220147556518</v>
+        <v>0.05793408356006282</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H5">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I5">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J5">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N5">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q5">
-        <v>43.73539659074966</v>
+        <v>10.905619945444</v>
       </c>
       <c r="R5">
-        <v>393.6185693167469</v>
+        <v>98.15057950899597</v>
       </c>
       <c r="S5">
-        <v>0.02426676152910375</v>
+        <v>0.01426986967462717</v>
       </c>
       <c r="T5">
-        <v>0.02426676152910376</v>
+        <v>0.01426986967462717</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,25 +779,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H6">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I6">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J6">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N6">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q6">
-        <v>188.1364950255576</v>
+        <v>29.72556525753967</v>
       </c>
       <c r="R6">
-        <v>1693.228455230019</v>
+        <v>267.530087317857</v>
       </c>
       <c r="S6">
-        <v>0.1043882945072516</v>
+        <v>0.03889553682887368</v>
       </c>
       <c r="T6">
-        <v>0.1043882945072516</v>
+        <v>0.03889553682887368</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.010202</v>
       </c>
       <c r="I7">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J7">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N7">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O7">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P7">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q7">
-        <v>22.42076948978822</v>
+        <v>19.27848986003489</v>
       </c>
       <c r="R7">
-        <v>201.786925408094</v>
+        <v>173.506408740314</v>
       </c>
       <c r="S7">
-        <v>0.01244025455168211</v>
+        <v>0.02522566705996825</v>
       </c>
       <c r="T7">
-        <v>0.01244025455168212</v>
+        <v>0.02522566705996824</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.010202</v>
       </c>
       <c r="I8">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J8">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q8">
         <v>92.76151254235377</v>
@@ -948,10 +948,10 @@
         <v>834.8536128811838</v>
       </c>
       <c r="S8">
-        <v>0.05146910007488928</v>
+        <v>0.1213772991744204</v>
       </c>
       <c r="T8">
-        <v>0.05146910007488929</v>
+        <v>0.1213772991744204</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>3.010202</v>
       </c>
       <c r="I9">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J9">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N9">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q9">
-        <v>244.79426235108</v>
+        <v>167.4254301110011</v>
       </c>
       <c r="R9">
-        <v>2203.14836115972</v>
+        <v>1506.82887099901</v>
       </c>
       <c r="S9">
-        <v>0.1358250856566589</v>
+        <v>0.2190741177350938</v>
       </c>
       <c r="T9">
-        <v>0.1358250856566589</v>
+        <v>0.2190741177350937</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>3.010202</v>
       </c>
       <c r="I10">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J10">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N10">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q10">
-        <v>65.68132897308378</v>
+        <v>41.23892052983732</v>
       </c>
       <c r="R10">
-        <v>591.1319607577539</v>
+        <v>371.1502847685359</v>
       </c>
       <c r="S10">
-        <v>0.03644355079294175</v>
+        <v>0.05396062070996067</v>
       </c>
       <c r="T10">
-        <v>0.03644355079294176</v>
+        <v>0.05396062070996067</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>3.010202</v>
       </c>
       <c r="I11">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J11">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N11">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q11">
-        <v>282.5412820020064</v>
+        <v>112.4053680114069</v>
       </c>
       <c r="R11">
-        <v>2542.871538018057</v>
+        <v>1011.648312102662</v>
       </c>
       <c r="S11">
-        <v>0.1567691720422197</v>
+        <v>0.1470810426436494</v>
       </c>
       <c r="T11">
-        <v>0.1567691720422197</v>
+        <v>0.1470810426436494</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H12">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I12">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J12">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N12">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O12">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P12">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q12">
-        <v>0.4473946801387777</v>
+        <v>9.204432079561778</v>
       </c>
       <c r="R12">
-        <v>4.026552121249</v>
+        <v>82.839888716056</v>
       </c>
       <c r="S12">
-        <v>0.0002482387461558692</v>
+        <v>0.01204388625877029</v>
       </c>
       <c r="T12">
-        <v>0.0002482387461558693</v>
+        <v>0.01204388625877029</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H13">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I13">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J13">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q13">
-        <v>1.851007265918222</v>
+        <v>44.28858525705955</v>
       </c>
       <c r="R13">
-        <v>16.659065393264</v>
+        <v>398.597267313536</v>
       </c>
       <c r="S13">
-        <v>0.001027038861245316</v>
+        <v>0.05795106952685247</v>
       </c>
       <c r="T13">
-        <v>0.001027038861245317</v>
+        <v>0.05795106952685247</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H14">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I14">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J14">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N14">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q14">
-        <v>4.88474094318</v>
+        <v>79.93655161978221</v>
       </c>
       <c r="R14">
-        <v>43.96266848862</v>
+        <v>719.4289645780399</v>
       </c>
       <c r="S14">
-        <v>0.002710318251113555</v>
+        <v>0.1045959954188518</v>
       </c>
       <c r="T14">
-        <v>0.002710318251113557</v>
+        <v>0.1045959954188518</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H15">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I15">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J15">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N15">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q15">
-        <v>1.310636424873222</v>
+        <v>19.68934526548266</v>
       </c>
       <c r="R15">
-        <v>11.795727823859</v>
+        <v>177.204107389344</v>
       </c>
       <c r="S15">
-        <v>0.0007272119165024914</v>
+        <v>0.02576326630881288</v>
       </c>
       <c r="T15">
-        <v>0.0007272119165024915</v>
+        <v>0.02576326630881288</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H16">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I16">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J16">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N16">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q16">
-        <v>5.637962896182556</v>
+        <v>53.66745957544978</v>
       </c>
       <c r="R16">
-        <v>50.741666065643</v>
+        <v>483.007136179048</v>
       </c>
       <c r="S16">
-        <v>0.003128246495437852</v>
+        <v>0.07022321131133195</v>
       </c>
       <c r="T16">
-        <v>0.003128246495437853</v>
+        <v>0.07022321131133195</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H17">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I17">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J17">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N17">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O17">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P17">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q17">
-        <v>19.26043520047322</v>
+        <v>0.4366252911591112</v>
       </c>
       <c r="R17">
-        <v>173.343916804259</v>
+        <v>3.929627620432</v>
       </c>
       <c r="S17">
-        <v>0.01068673030063469</v>
+        <v>0.0005713188276004053</v>
       </c>
       <c r="T17">
-        <v>0.01068673030063469</v>
+        <v>0.0005713188276004052</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H18">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I18">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J18">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q18">
-        <v>79.68625261651378</v>
+        <v>2.100891860110222</v>
       </c>
       <c r="R18">
-        <v>717.176273548624</v>
+        <v>18.908026740992</v>
       </c>
       <c r="S18">
-        <v>0.04421423926911084</v>
+        <v>0.00274899118016508</v>
       </c>
       <c r="T18">
-        <v>0.04421423926911084</v>
+        <v>0.00274899118016508</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H19">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I19">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J19">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N19">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q19">
-        <v>210.28912632138</v>
+        <v>3.791903707208888</v>
       </c>
       <c r="R19">
-        <v>1892.60213689242</v>
+        <v>34.12713336488</v>
       </c>
       <c r="S19">
-        <v>0.1166797714984899</v>
+        <v>0.00496165940050128</v>
       </c>
       <c r="T19">
-        <v>0.1166797714984899</v>
+        <v>0.00496165940050128</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H20">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I20">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J20">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N20">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q20">
-        <v>56.42317410841878</v>
+        <v>0.9339920198186665</v>
       </c>
       <c r="R20">
-        <v>507.808566975769</v>
+        <v>8.405928178367999</v>
       </c>
       <c r="S20">
-        <v>0.03130662615492772</v>
+        <v>0.001222117079691754</v>
       </c>
       <c r="T20">
-        <v>0.03130662615492772</v>
+        <v>0.001222117079691754</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H21">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I21">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J21">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N21">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q21">
-        <v>242.7154900253014</v>
+        <v>2.545792066295111</v>
       </c>
       <c r="R21">
-        <v>2184.439410227713</v>
+        <v>22.912128596656</v>
       </c>
       <c r="S21">
-        <v>0.1346716704315724</v>
+        <v>0.003331137632382626</v>
       </c>
       <c r="T21">
-        <v>0.1346716704315724</v>
+        <v>0.003331137632382626</v>
       </c>
     </row>
   </sheetData>
